--- a/assets/files/excel/34617.xlsx
+++ b/assets/files/excel/34617.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\Эксель-интерактив\Задачи в Приложение для ПК\Excel-решения_Сапунова\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\3-й этап\Эксель-интерактив\Excel-решения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Wo1mMMl3cnquqj+LUp8rgkskrYp3YQlFT2WHuk9BRmHVr8JhSxUQhmDU/SChqLhV1eSD8qNA3aGNZOnLhTYqdA==" workbookSaltValue="y58XwanBQNhI64yZ2CzlUw==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JZWpITLBfu82c/QNitTw+zxe4jt9zBYD6b6t7/Dh8FWTs8ORGnwMgshFYhRMOa58yxyTLV7WWEiZyJatg0VDGw==" workbookSaltValue="HUVL9iHvd2/GpLqvgJaVDg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
@@ -69,9 +69,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -470,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -551,6 +550,9 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -562,12 +564,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -897,9 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -927,32 +921,32 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -1026,11 +1020,11 @@
       <c r="A14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="f+CJPilNnvA6EzpRdw9PV0uAbpoQth2pNh9Bo9wG/N6u4Y9OfGaFDgeIi6d7amICfdZyE1eXa4VBZ/lvbG+COQ==" saltValue="r6k0ex6VFZsvSSmioIwwrA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XcdQHI0mBAJrJgd0q4m4RvWv8dEkjIg4cpu35ndTUqcMNC5igzulI099EY0BitdO14NwlwanmEfoMiw8Nbw9aQ==" saltValue="jhHsvJJN04HDAkAthsCANw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A5:J5"/>
@@ -1060,7 +1054,7 @@
       <c r="B1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="33" t="str">
+      <c r="C1" s="29" t="str">
         <f>IF(AND(B15="верно",C15="верно"),"решена","не решена")</f>
         <v>не решена</v>
       </c>
@@ -1077,32 +1071,32 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -1198,12 +1192,12 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="str">
-        <f>IFERROR(IF(ROUND(B14,1)=ROUND('Ипотечный кредит'!B14,1),"верно","не верно"),"не верно")</f>
+      <c r="B15" s="29" t="str">
+        <f>IFERROR(IF(ABS(B14-'Ипотечный кредит'!B14)&lt;0.001,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
-      <c r="C15" s="33" t="str">
-        <f>IFERROR(IF(ROUND(C14,1)=ROUND('Ипотечный кредит'!C14,1),"верно","не верно"),"не верно")</f>
+      <c r="C15" s="29" t="str">
+        <f>IFERROR(IF(ABS(C14-'Ипотечный кредит'!C14)&lt;0.001,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
